--- a/benchmark/ethereum/Transactions_100tps_500tts_10.195.9.55.xlsx
+++ b/benchmark/ethereum/Transactions_100tps_500tts_10.195.9.55.xlsx
@@ -5,18 +5,40 @@
   <workbookPr defaultThemeVersion="164011" filterPrivacy="1"/>
   <sheets>
     <sheet sheetId="1" name="Transactions_100tps_500tts" state="visible" r:id="rId4"/>
+    <sheet sheetId="2" name="General" state="visible" r:id="rId5"/>
   </sheets>
   <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>Tx nr.</t>
   </si>
   <si>
     <t>Latency</t>
+  </si>
+  <si>
+    <t>Successful</t>
+  </si>
+  <si>
+    <t>Failed</t>
+  </si>
+  <si>
+    <t>Durschn. Latenz:</t>
+  </si>
+  <si>
+    <t>Dursatz:</t>
+  </si>
+  <si>
+    <t>Total Time</t>
+  </si>
+  <si>
+    <t>56460.14 ms</t>
+  </si>
+  <si>
+    <t>8.251914444151042 tx/s</t>
   </si>
 </sst>
 </file>
@@ -409,7 +431,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>82445</v>
+        <v>57302</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -417,7 +439,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>82442</v>
+        <v>57356</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -425,7 +447,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>82687</v>
+        <v>57353</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -433,7 +455,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>82935</v>
+        <v>57173</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -441,7 +463,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>83057</v>
+        <v>57343</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -449,7 +471,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>82487</v>
+        <v>57182</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -457,7 +479,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>82597</v>
+        <v>57110</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -465,7 +487,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>82671</v>
+        <v>57347</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -473,7 +495,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>83098</v>
+        <v>57315</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -481,7 +503,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>82590</v>
+        <v>57322</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -489,7 +511,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>82453</v>
+        <v>56981</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
@@ -497,7 +519,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>82437</v>
+        <v>57018</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
@@ -505,7 +527,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>82514</v>
+        <v>58008</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -513,7 +535,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>82452</v>
+        <v>57104</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
@@ -521,7 +543,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>82677</v>
+        <v>57359</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
@@ -529,7 +551,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>82490</v>
+        <v>57318</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
@@ -537,7 +559,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>82663</v>
+        <v>57101</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
@@ -545,7 +567,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>83125</v>
+        <v>57114</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
@@ -553,7 +575,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>82429</v>
+        <v>57044</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
@@ -561,7 +583,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>82582</v>
+        <v>57918</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
@@ -569,7 +591,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>83091</v>
+        <v>57213</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
@@ -577,7 +599,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>82612</v>
+        <v>57368</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
@@ -585,7 +607,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>82495</v>
+        <v>57120</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
@@ -593,7 +615,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>83109</v>
+        <v>57190</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
@@ -601,7 +623,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>83412</v>
+        <v>57383</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
@@ -609,7 +631,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>82606</v>
+        <v>56992</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
@@ -617,7 +639,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>82550</v>
+        <v>57247</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
@@ -625,7 +647,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>83055</v>
+        <v>57366</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
@@ -633,7 +655,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>82451</v>
+        <v>57081</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
@@ -641,7 +663,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>83119</v>
+        <v>57591</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
@@ -649,7 +671,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>83056</v>
+        <v>57029</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
@@ -657,7 +679,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>83076</v>
+        <v>57036</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
@@ -665,7 +687,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>83086</v>
+        <v>57111</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
@@ -673,7 +695,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>82596</v>
+        <v>57252</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
@@ -681,7 +703,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>83083</v>
+        <v>57324</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
@@ -689,7 +711,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>82458</v>
+        <v>57069</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
@@ -697,7 +719,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>82666</v>
+        <v>57224</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
@@ -705,7 +727,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>82530</v>
+        <v>57256</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
@@ -713,7 +735,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>83078</v>
+        <v>57327</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
@@ -721,7 +743,7 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>82504</v>
+        <v>57133</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
@@ -729,7 +751,7 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>83070</v>
+        <v>57080</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
@@ -737,7 +759,7 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>82542</v>
+        <v>57125</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
@@ -745,7 +767,7 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>82446</v>
+        <v>57002</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
@@ -753,7 +775,7 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>82428</v>
+        <v>57219</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
@@ -761,7 +783,7 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>82567</v>
+        <v>57279</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
@@ -769,7 +791,7 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>82537</v>
+        <v>57001</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
@@ -777,7 +799,7 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>82498</v>
+        <v>57154</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
@@ -785,7 +807,7 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>82611</v>
+        <v>57129</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
@@ -793,7 +815,7 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>82448</v>
+        <v>57066</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
@@ -801,7 +823,7 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>82459</v>
+        <v>57080</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
@@ -809,7 +831,7 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>82574</v>
+        <v>57135</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
@@ -817,7 +839,7 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>82444</v>
+        <v>57226</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
@@ -825,7 +847,7 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>82581</v>
+        <v>57139</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
@@ -833,7 +855,7 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>82522</v>
+        <v>57282</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
@@ -841,7 +863,7 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>82444</v>
+        <v>57082</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
@@ -849,7 +871,7 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>82454</v>
+        <v>57142</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
@@ -857,7 +879,7 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>82926</v>
+        <v>57030</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
@@ -865,7 +887,7 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>83056</v>
+        <v>57285</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
@@ -873,7 +895,7 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>82638</v>
+        <v>57207</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
@@ -881,7 +903,7 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>82548</v>
+        <v>57147</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
@@ -889,7 +911,7 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>83134</v>
+        <v>57150</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
@@ -897,7 +919,7 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>82633</v>
+        <v>57935</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
@@ -905,7 +927,7 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>83109</v>
+        <v>56962</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
@@ -913,7 +935,7 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>82671</v>
+        <v>56960</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
@@ -921,7 +943,7 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>82688</v>
+        <v>57289</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
@@ -929,7 +951,7 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>83059</v>
+        <v>57294</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
@@ -937,7 +959,7 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>82442</v>
+        <v>56977</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
@@ -945,7 +967,7 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>82460</v>
+        <v>57336</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
@@ -953,7 +975,7 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>82516</v>
+        <v>57400</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
@@ -961,7 +983,7 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>82595</v>
+        <v>57093</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
@@ -969,7 +991,7 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>82513</v>
+        <v>57307</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
@@ -977,7 +999,7 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>83230</v>
+        <v>57202</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
@@ -985,7 +1007,7 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>82648</v>
+        <v>57092</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
@@ -993,7 +1015,7 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>82683</v>
+        <v>57173</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.25">
@@ -1001,7 +1023,7 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>82528</v>
+        <v>57302</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.25">
@@ -1009,7 +1031,7 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>82424</v>
+        <v>56966</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.25">
@@ -1017,7 +1039,7 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>82507</v>
+        <v>58010</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.25">
@@ -1025,7 +1047,7 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>83104</v>
+        <v>57004</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.25">
@@ -1033,7 +1055,7 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>82416</v>
+        <v>57236</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.25">
@@ -1041,7 +1063,7 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>82581</v>
+        <v>57038</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.25">
@@ -1049,7 +1071,7 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>82637</v>
+        <v>57258</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.25">
@@ -1057,7 +1079,7 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>82423</v>
+        <v>56985</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.25">
@@ -1065,7 +1087,7 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>82454</v>
+        <v>57161</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.25">
@@ -1073,7 +1095,7 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>83402</v>
+        <v>57157</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.25">
@@ -1081,7 +1103,7 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>82567</v>
+        <v>57261</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.25">
@@ -1089,7 +1111,7 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>82487</v>
+        <v>57327</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.25">
@@ -1097,7 +1119,7 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>82441</v>
+        <v>58004</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.25">
@@ -1105,7 +1127,7 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>82474</v>
+        <v>57923</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.25">
@@ -1113,7 +1135,7 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>82676</v>
+        <v>57048</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.25">
@@ -1121,7 +1143,7 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>82471</v>
+        <v>57213</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.25">
@@ -1129,7 +1151,7 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>83058</v>
+        <v>57266</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.25">
@@ -1137,7 +1159,7 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>83103</v>
+        <v>57056</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.25">
@@ -1145,7 +1167,7 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>82648</v>
+        <v>57272</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.25">
@@ -1153,7 +1175,7 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>82637</v>
+        <v>57052</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.25">
@@ -1161,7 +1183,7 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>82567</v>
+        <v>57093</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.25">
@@ -1169,7 +1191,7 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>82640</v>
+        <v>57274</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.25">
@@ -1177,7 +1199,7 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>82460</v>
+        <v>57164</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.25">
@@ -1185,7 +1207,7 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>82439</v>
+        <v>57356</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.25">
@@ -1193,7 +1215,7 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>83085</v>
+        <v>57180</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.25">
@@ -1201,7 +1223,7 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>83097</v>
+        <v>57184</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.25">
@@ -1209,7 +1231,7 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>81706</v>
+        <v>55308</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.25">
@@ -1217,7 +1239,7 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>82250</v>
+        <v>55446</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.25">
@@ -1225,7 +1247,7 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>82259</v>
+        <v>55252</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.25">
@@ -1233,7 +1255,7 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>81819</v>
+        <v>55314</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.25">
@@ -1241,7 +1263,7 @@
         <v>104</v>
       </c>
       <c r="B106">
-        <v>82262</v>
+        <v>55557</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.25">
@@ -1249,7 +1271,7 @@
         <v>105</v>
       </c>
       <c r="B107">
-        <v>81645</v>
+        <v>55488</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.25">
@@ -1257,7 +1279,7 @@
         <v>106</v>
       </c>
       <c r="B108">
-        <v>81268</v>
+        <v>55717</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.25">
@@ -1265,7 +1287,7 @@
         <v>107</v>
       </c>
       <c r="B109">
-        <v>82016</v>
+        <v>55280</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.25">
@@ -1273,7 +1295,7 @@
         <v>108</v>
       </c>
       <c r="B110">
-        <v>82020</v>
+        <v>55336</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.25">
@@ -1281,7 +1303,7 @@
         <v>109</v>
       </c>
       <c r="B111">
-        <v>82016</v>
+        <v>55349</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.25">
@@ -1289,7 +1311,7 @@
         <v>110</v>
       </c>
       <c r="B112">
-        <v>81570</v>
+        <v>55298</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.25">
@@ -1297,7 +1319,7 @@
         <v>111</v>
       </c>
       <c r="B113">
-        <v>81549</v>
+        <v>55323</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.25">
@@ -1305,7 +1327,7 @@
         <v>112</v>
       </c>
       <c r="B114">
-        <v>82093</v>
+        <v>55312</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.25">
@@ -1313,7 +1335,7 @@
         <v>113</v>
       </c>
       <c r="B115">
-        <v>81574</v>
+        <v>55173</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.25">
@@ -1321,7 +1343,7 @@
         <v>114</v>
       </c>
       <c r="B116">
-        <v>82014</v>
+        <v>55349</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.25">
@@ -1329,7 +1351,7 @@
         <v>115</v>
       </c>
       <c r="B117">
-        <v>81571</v>
+        <v>55272</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.25">
@@ -1337,7 +1359,7 @@
         <v>116</v>
       </c>
       <c r="B118">
-        <v>81583</v>
+        <v>55485</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.25">
@@ -1345,7 +1367,7 @@
         <v>117</v>
       </c>
       <c r="B119">
-        <v>81585</v>
+        <v>55449</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.25">
@@ -1353,7 +1375,7 @@
         <v>118</v>
       </c>
       <c r="B120">
-        <v>82055</v>
+        <v>55306</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.25">
@@ -1361,7 +1383,7 @@
         <v>119</v>
       </c>
       <c r="B121">
-        <v>81655</v>
+        <v>55358</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.25">
@@ -1369,7 +1391,7 @@
         <v>120</v>
       </c>
       <c r="B122">
-        <v>82015</v>
+        <v>55296</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.25">
@@ -1377,7 +1399,7 @@
         <v>121</v>
       </c>
       <c r="B123">
-        <v>81649</v>
+        <v>55309</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.25">
@@ -1385,7 +1407,7 @@
         <v>122</v>
       </c>
       <c r="B124">
-        <v>82084</v>
+        <v>55474</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.25">
@@ -1393,7 +1415,7 @@
         <v>123</v>
       </c>
       <c r="B125">
-        <v>82015</v>
+        <v>55328</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.25">
@@ -1401,7 +1423,7 @@
         <v>124</v>
       </c>
       <c r="B126">
-        <v>82089</v>
+        <v>55338</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.25">
@@ -1409,7 +1431,7 @@
         <v>125</v>
       </c>
       <c r="B127">
-        <v>81690</v>
+        <v>55257</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.25">
@@ -1417,7 +1439,7 @@
         <v>126</v>
       </c>
       <c r="B128">
-        <v>82079</v>
+        <v>55490</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.25">
@@ -1425,7 +1447,7 @@
         <v>127</v>
       </c>
       <c r="B129">
-        <v>81589</v>
+        <v>55331</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.25">
@@ -1433,7 +1455,7 @@
         <v>128</v>
       </c>
       <c r="B130">
-        <v>81593</v>
+        <v>55494</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.25">
@@ -1441,7 +1463,7 @@
         <v>129</v>
       </c>
       <c r="B131">
-        <v>82025</v>
+        <v>55185</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.25">
@@ -1449,7 +1471,7 @@
         <v>130</v>
       </c>
       <c r="B132">
-        <v>82032</v>
+        <v>55917</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.25">
@@ -1457,7 +1479,7 @@
         <v>131</v>
       </c>
       <c r="B133">
-        <v>81653</v>
+        <v>55249</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.25">
@@ -1465,7 +1487,7 @@
         <v>132</v>
       </c>
       <c r="B134">
-        <v>82017</v>
+        <v>55315</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.25">
@@ -1473,7 +1495,7 @@
         <v>133</v>
       </c>
       <c r="B135">
-        <v>82017</v>
+        <v>55318</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.25">
@@ -1481,7 +1503,7 @@
         <v>134</v>
       </c>
       <c r="B136">
-        <v>81678</v>
+        <v>55364</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.25">
@@ -1489,7 +1511,7 @@
         <v>135</v>
       </c>
       <c r="B137">
-        <v>82013</v>
+        <v>55303</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.25">
@@ -1497,7 +1519,7 @@
         <v>136</v>
       </c>
       <c r="B138">
-        <v>81545</v>
+        <v>55254</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.25">
@@ -1505,7 +1527,7 @@
         <v>137</v>
       </c>
       <c r="B139">
-        <v>82018</v>
+        <v>55779</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.25">
@@ -1513,7 +1535,7 @@
         <v>138</v>
       </c>
       <c r="B140">
-        <v>82157</v>
+        <v>55378</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.25">
@@ -1521,7 +1543,7 @@
         <v>139</v>
       </c>
       <c r="B141">
-        <v>81663</v>
+        <v>55260</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.25">
@@ -1529,7 +1551,7 @@
         <v>140</v>
       </c>
       <c r="B142">
-        <v>81603</v>
+        <v>55503</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.25">
@@ -1537,7 +1559,7 @@
         <v>141</v>
       </c>
       <c r="B143">
-        <v>81554</v>
+        <v>55317</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.25">
@@ -1545,7 +1567,7 @@
         <v>142</v>
       </c>
       <c r="B144">
-        <v>82252</v>
+        <v>55283</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.25">
@@ -1553,7 +1575,7 @@
         <v>143</v>
       </c>
       <c r="B145">
-        <v>81686</v>
+        <v>55499</v>
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.25">
@@ -1561,7 +1583,7 @@
         <v>144</v>
       </c>
       <c r="B146">
-        <v>81667</v>
+        <v>55426</v>
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.25">
@@ -1569,7 +1591,7 @@
         <v>145</v>
       </c>
       <c r="B147">
-        <v>81594</v>
+        <v>55506</v>
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.25">
@@ -1577,7 +1599,7 @@
         <v>146</v>
       </c>
       <c r="B148">
-        <v>82229</v>
+        <v>55253</v>
       </c>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.25">
@@ -1585,7 +1607,7 @@
         <v>147</v>
       </c>
       <c r="B149">
-        <v>81576</v>
+        <v>55363</v>
       </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.25">
@@ -1593,7 +1615,7 @@
         <v>148</v>
       </c>
       <c r="B150">
-        <v>82236</v>
+        <v>55175</v>
       </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.25">
@@ -1601,7 +1623,7 @@
         <v>149</v>
       </c>
       <c r="B151">
-        <v>81706</v>
+        <v>55423</v>
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.25">
@@ -1609,7 +1631,7 @@
         <v>150</v>
       </c>
       <c r="B152">
-        <v>81671</v>
+        <v>55290</v>
       </c>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.25">
@@ -1617,7 +1639,7 @@
         <v>151</v>
       </c>
       <c r="B153">
-        <v>81619</v>
+        <v>55325</v>
       </c>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.25">
@@ -1625,7 +1647,7 @@
         <v>152</v>
       </c>
       <c r="B154">
-        <v>81697</v>
+        <v>55358</v>
       </c>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.25">
@@ -1633,7 +1655,7 @@
         <v>153</v>
       </c>
       <c r="B155">
-        <v>81693</v>
+        <v>55248</v>
       </c>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.25">
@@ -1641,7 +1663,7 @@
         <v>154</v>
       </c>
       <c r="B156">
-        <v>82039</v>
+        <v>55522</v>
       </c>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.25">
@@ -1649,7 +1671,7 @@
         <v>155</v>
       </c>
       <c r="B157">
-        <v>82105</v>
+        <v>55239</v>
       </c>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.25">
@@ -1657,7 +1679,7 @@
         <v>156</v>
       </c>
       <c r="B158">
-        <v>81610</v>
+        <v>55333</v>
       </c>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.25">
@@ -1665,7 +1687,7 @@
         <v>157</v>
       </c>
       <c r="B159">
-        <v>82228</v>
+        <v>55198</v>
       </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.25">
@@ -1673,7 +1695,7 @@
         <v>158</v>
       </c>
       <c r="B160">
-        <v>82138</v>
+        <v>55222</v>
       </c>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.25">
@@ -1681,7 +1703,7 @@
         <v>159</v>
       </c>
       <c r="B161">
-        <v>81885</v>
+        <v>55452</v>
       </c>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.25">
@@ -1689,7 +1711,7 @@
         <v>160</v>
       </c>
       <c r="B162">
-        <v>82149</v>
+        <v>55265</v>
       </c>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.25">
@@ -1697,7 +1719,7 @@
         <v>161</v>
       </c>
       <c r="B163">
-        <v>82051</v>
+        <v>55456</v>
       </c>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.25">
@@ -1705,7 +1727,7 @@
         <v>162</v>
       </c>
       <c r="B164">
-        <v>81598</v>
+        <v>55439</v>
       </c>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.25">
@@ -1713,7 +1735,7 @@
         <v>163</v>
       </c>
       <c r="B165">
-        <v>81564</v>
+        <v>55328</v>
       </c>
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.25">
@@ -1721,7 +1743,7 @@
         <v>164</v>
       </c>
       <c r="B166">
-        <v>82141</v>
+        <v>55522</v>
       </c>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.25">
@@ -1729,7 +1751,7 @@
         <v>165</v>
       </c>
       <c r="B167">
-        <v>82146</v>
+        <v>55524</v>
       </c>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.25">
@@ -1737,7 +1759,7 @@
         <v>166</v>
       </c>
       <c r="B168">
-        <v>81855</v>
+        <v>55224</v>
       </c>
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.25">
@@ -1745,7 +1767,7 @@
         <v>167</v>
       </c>
       <c r="B169">
-        <v>82142</v>
+        <v>55558</v>
       </c>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.25">
@@ -1753,7 +1775,7 @@
         <v>168</v>
       </c>
       <c r="B170">
-        <v>81658</v>
+        <v>55366</v>
       </c>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.25">
@@ -1761,7 +1783,7 @@
         <v>169</v>
       </c>
       <c r="B171">
-        <v>82138</v>
+        <v>55292</v>
       </c>
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.25">
@@ -1769,7 +1791,7 @@
         <v>170</v>
       </c>
       <c r="B172">
-        <v>81837</v>
+        <v>55272</v>
       </c>
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.25">
@@ -1777,7 +1799,7 @@
         <v>171</v>
       </c>
       <c r="B173">
-        <v>82139</v>
+        <v>55306</v>
       </c>
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.25">
@@ -1785,7 +1807,7 @@
         <v>172</v>
       </c>
       <c r="B174">
-        <v>82117</v>
+        <v>55177</v>
       </c>
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.25">
@@ -1793,7 +1815,7 @@
         <v>173</v>
       </c>
       <c r="B175">
-        <v>82122</v>
+        <v>55248</v>
       </c>
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.25">
@@ -1801,7 +1823,7 @@
         <v>174</v>
       </c>
       <c r="B176">
-        <v>82034</v>
+        <v>55253</v>
       </c>
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.25">
@@ -1809,7 +1831,7 @@
         <v>175</v>
       </c>
       <c r="B177">
-        <v>81778</v>
+        <v>55358</v>
       </c>
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.25">
@@ -1817,7 +1839,7 @@
         <v>176</v>
       </c>
       <c r="B178">
-        <v>82094</v>
+        <v>55353</v>
       </c>
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.25">
@@ -1825,7 +1847,7 @@
         <v>177</v>
       </c>
       <c r="B179">
-        <v>82027</v>
+        <v>55527</v>
       </c>
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.25">
@@ -1833,7 +1855,7 @@
         <v>178</v>
       </c>
       <c r="B180">
-        <v>82098</v>
+        <v>55460</v>
       </c>
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.25">
@@ -1841,7 +1863,7 @@
         <v>179</v>
       </c>
       <c r="B181">
-        <v>81625</v>
+        <v>55531</v>
       </c>
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.25">
@@ -1849,7 +1871,7 @@
         <v>180</v>
       </c>
       <c r="B182">
-        <v>82055</v>
+        <v>55420</v>
       </c>
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.25">
@@ -1857,7 +1879,7 @@
         <v>181</v>
       </c>
       <c r="B183">
-        <v>82234</v>
+        <v>55916</v>
       </c>
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.25">
@@ -1865,7 +1887,7 @@
         <v>182</v>
       </c>
       <c r="B184">
-        <v>81606</v>
+        <v>55166</v>
       </c>
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.25">
@@ -1873,7 +1895,7 @@
         <v>183</v>
       </c>
       <c r="B185">
-        <v>82231</v>
+        <v>55398</v>
       </c>
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.25">
@@ -1881,7 +1903,7 @@
         <v>184</v>
       </c>
       <c r="B186">
-        <v>82082</v>
+        <v>55519</v>
       </c>
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.25">
@@ -1889,7 +1911,7 @@
         <v>185</v>
       </c>
       <c r="B187">
-        <v>81636</v>
+        <v>55389</v>
       </c>
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.25">
@@ -1897,7 +1919,7 @@
         <v>186</v>
       </c>
       <c r="B188">
-        <v>82161</v>
+        <v>55379</v>
       </c>
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.25">
@@ -1905,7 +1927,7 @@
         <v>187</v>
       </c>
       <c r="B189">
-        <v>81535</v>
+        <v>55319</v>
       </c>
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.25">
@@ -1913,7 +1935,7 @@
         <v>188</v>
       </c>
       <c r="B190">
-        <v>81672</v>
+        <v>55370</v>
       </c>
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.25">
@@ -1921,7 +1943,7 @@
         <v>189</v>
       </c>
       <c r="B191">
-        <v>82108</v>
+        <v>55340</v>
       </c>
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.25">
@@ -1929,7 +1951,7 @@
         <v>190</v>
       </c>
       <c r="B192">
-        <v>82082</v>
+        <v>55185</v>
       </c>
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.25">
@@ -1937,7 +1959,7 @@
         <v>191</v>
       </c>
       <c r="B193">
-        <v>82263</v>
+        <v>55350</v>
       </c>
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.25">
@@ -1945,7 +1967,7 @@
         <v>192</v>
       </c>
       <c r="B194">
-        <v>82019</v>
+        <v>55463</v>
       </c>
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.25">
@@ -1953,7 +1975,7 @@
         <v>193</v>
       </c>
       <c r="B195">
-        <v>81539</v>
+        <v>55472</v>
       </c>
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.25">
@@ -1961,7 +1983,7 @@
         <v>194</v>
       </c>
       <c r="B196">
-        <v>82151</v>
+        <v>55432</v>
       </c>
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.25">
@@ -1969,7 +1991,7 @@
         <v>195</v>
       </c>
       <c r="B197">
-        <v>82112</v>
+        <v>55340</v>
       </c>
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.25">
@@ -1977,7 +1999,7 @@
         <v>196</v>
       </c>
       <c r="B198">
-        <v>82012</v>
+        <v>55422</v>
       </c>
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.25">
@@ -1985,7 +2007,7 @@
         <v>197</v>
       </c>
       <c r="B199">
-        <v>81566</v>
+        <v>55294</v>
       </c>
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.25">
@@ -1993,7 +2015,7 @@
         <v>198</v>
       </c>
       <c r="B200">
-        <v>81638</v>
+        <v>55428</v>
       </c>
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.25">
@@ -2001,7 +2023,7 @@
         <v>199</v>
       </c>
       <c r="B201">
-        <v>82050</v>
+        <v>55477</v>
       </c>
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.25">
@@ -2009,7 +2031,7 @@
         <v>200</v>
       </c>
       <c r="B202">
-        <v>80869</v>
+        <v>54697</v>
       </c>
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.25">
@@ -2017,7 +2039,7 @@
         <v>201</v>
       </c>
       <c r="B203">
-        <v>80320</v>
+        <v>54727</v>
       </c>
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.25">
@@ -2025,7 +2047,7 @@
         <v>202</v>
       </c>
       <c r="B204">
-        <v>80494</v>
+        <v>54520</v>
       </c>
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.25">
@@ -2033,7 +2055,7 @@
         <v>203</v>
       </c>
       <c r="B205">
-        <v>80899</v>
+        <v>54732</v>
       </c>
     </row>
     <row r="206" spans="1:2" x14ac:dyDescent="0.25">
@@ -2041,7 +2063,7 @@
         <v>204</v>
       </c>
       <c r="B206">
-        <v>80918</v>
+        <v>54686</v>
       </c>
     </row>
     <row r="207" spans="1:2" x14ac:dyDescent="0.25">
@@ -2049,7 +2071,7 @@
         <v>205</v>
       </c>
       <c r="B207">
-        <v>80429</v>
+        <v>54905</v>
       </c>
     </row>
     <row r="208" spans="1:2" x14ac:dyDescent="0.25">
@@ -2057,7 +2079,7 @@
         <v>206</v>
       </c>
       <c r="B208">
-        <v>80560</v>
+        <v>54689</v>
       </c>
     </row>
     <row r="209" spans="1:2" x14ac:dyDescent="0.25">
@@ -2065,7 +2087,7 @@
         <v>207</v>
       </c>
       <c r="B209">
-        <v>80465</v>
+        <v>54671</v>
       </c>
     </row>
     <row r="210" spans="1:2" x14ac:dyDescent="0.25">
@@ -2073,7 +2095,7 @@
         <v>208</v>
       </c>
       <c r="B210">
-        <v>80520</v>
+        <v>54907</v>
       </c>
     </row>
     <row r="211" spans="1:2" x14ac:dyDescent="0.25">
@@ -2081,7 +2103,7 @@
         <v>209</v>
       </c>
       <c r="B211">
-        <v>80423</v>
+        <v>54717</v>
       </c>
     </row>
     <row r="212" spans="1:2" x14ac:dyDescent="0.25">
@@ -2089,7 +2111,7 @@
         <v>210</v>
       </c>
       <c r="B212">
-        <v>80386</v>
+        <v>54396</v>
       </c>
     </row>
     <row r="213" spans="1:2" x14ac:dyDescent="0.25">
@@ -2097,7 +2119,7 @@
         <v>211</v>
       </c>
       <c r="B213">
-        <v>80397</v>
+        <v>54666</v>
       </c>
     </row>
     <row r="214" spans="1:2" x14ac:dyDescent="0.25">
@@ -2105,7 +2127,7 @@
         <v>212</v>
       </c>
       <c r="B214">
-        <v>80798</v>
+        <v>54906</v>
       </c>
     </row>
     <row r="215" spans="1:2" x14ac:dyDescent="0.25">
@@ -2113,7 +2135,7 @@
         <v>213</v>
       </c>
       <c r="B215">
-        <v>80405</v>
+        <v>54904</v>
       </c>
     </row>
     <row r="216" spans="1:2" x14ac:dyDescent="0.25">
@@ -2121,7 +2143,7 @@
         <v>214</v>
       </c>
       <c r="B216">
-        <v>80042</v>
+        <v>54904</v>
       </c>
     </row>
     <row r="217" spans="1:2" x14ac:dyDescent="0.25">
@@ -2129,7 +2151,7 @@
         <v>215</v>
       </c>
       <c r="B217">
-        <v>80401</v>
+        <v>54721</v>
       </c>
     </row>
     <row r="218" spans="1:2" x14ac:dyDescent="0.25">
@@ -2137,7 +2159,7 @@
         <v>216</v>
       </c>
       <c r="B218">
-        <v>80859</v>
+        <v>54659</v>
       </c>
     </row>
     <row r="219" spans="1:2" x14ac:dyDescent="0.25">
@@ -2145,7 +2167,7 @@
         <v>217</v>
       </c>
       <c r="B219">
-        <v>80413</v>
+        <v>54906</v>
       </c>
     </row>
     <row r="220" spans="1:2" x14ac:dyDescent="0.25">
@@ -2153,7 +2175,7 @@
         <v>218</v>
       </c>
       <c r="B220">
-        <v>80555</v>
+        <v>54760</v>
       </c>
     </row>
     <row r="221" spans="1:2" x14ac:dyDescent="0.25">
@@ -2161,7 +2183,7 @@
         <v>219</v>
       </c>
       <c r="B221">
-        <v>80027</v>
+        <v>54477</v>
       </c>
     </row>
     <row r="222" spans="1:2" x14ac:dyDescent="0.25">
@@ -2169,7 +2191,7 @@
         <v>220</v>
       </c>
       <c r="B222">
-        <v>80958</v>
+        <v>54906</v>
       </c>
     </row>
     <row r="223" spans="1:2" x14ac:dyDescent="0.25">
@@ -2177,7 +2199,7 @@
         <v>221</v>
       </c>
       <c r="B223">
-        <v>80137</v>
+        <v>54432</v>
       </c>
     </row>
     <row r="224" spans="1:2" x14ac:dyDescent="0.25">
@@ -2185,7 +2207,7 @@
         <v>222</v>
       </c>
       <c r="B224">
-        <v>80437</v>
+        <v>54517</v>
       </c>
     </row>
     <row r="225" spans="1:2" x14ac:dyDescent="0.25">
@@ -2193,7 +2215,7 @@
         <v>223</v>
       </c>
       <c r="B225">
-        <v>80417</v>
+        <v>53822</v>
       </c>
     </row>
     <row r="226" spans="1:2" x14ac:dyDescent="0.25">
@@ -2201,7 +2223,7 @@
         <v>224</v>
       </c>
       <c r="B226">
-        <v>80854</v>
+        <v>54904</v>
       </c>
     </row>
     <row r="227" spans="1:2" x14ac:dyDescent="0.25">
@@ -2209,7 +2231,7 @@
         <v>225</v>
       </c>
       <c r="B227">
-        <v>80179</v>
+        <v>54420</v>
       </c>
     </row>
     <row r="228" spans="1:2" x14ac:dyDescent="0.25">
@@ -2217,7 +2239,7 @@
         <v>226</v>
       </c>
       <c r="B228">
-        <v>80851</v>
+        <v>54734</v>
       </c>
     </row>
     <row r="229" spans="1:2" x14ac:dyDescent="0.25">
@@ -2225,7 +2247,7 @@
         <v>227</v>
       </c>
       <c r="B229">
-        <v>80483</v>
+        <v>54419</v>
       </c>
     </row>
     <row r="230" spans="1:2" x14ac:dyDescent="0.25">
@@ -2233,7 +2255,7 @@
         <v>228</v>
       </c>
       <c r="B230">
-        <v>80524</v>
+        <v>54538</v>
       </c>
     </row>
     <row r="231" spans="1:2" x14ac:dyDescent="0.25">
@@ -2241,7 +2263,7 @@
         <v>229</v>
       </c>
       <c r="B231">
-        <v>80863</v>
+        <v>54523</v>
       </c>
     </row>
     <row r="232" spans="1:2" x14ac:dyDescent="0.25">
@@ -2249,7 +2271,7 @@
         <v>230</v>
       </c>
       <c r="B232">
-        <v>80900</v>
+        <v>54500</v>
       </c>
     </row>
     <row r="233" spans="1:2" x14ac:dyDescent="0.25">
@@ -2257,7 +2279,7 @@
         <v>231</v>
       </c>
       <c r="B233">
-        <v>80543</v>
+        <v>54679</v>
       </c>
     </row>
     <row r="234" spans="1:2" x14ac:dyDescent="0.25">
@@ -2265,7 +2287,7 @@
         <v>232</v>
       </c>
       <c r="B234">
-        <v>80098</v>
+        <v>54674</v>
       </c>
     </row>
     <row r="235" spans="1:2" x14ac:dyDescent="0.25">
@@ -2273,7 +2295,7 @@
         <v>233</v>
       </c>
       <c r="B235">
-        <v>80037</v>
+        <v>54372</v>
       </c>
     </row>
     <row r="236" spans="1:2" x14ac:dyDescent="0.25">
@@ -2281,7 +2303,7 @@
         <v>234</v>
       </c>
       <c r="B236">
-        <v>80186</v>
+        <v>54905</v>
       </c>
     </row>
     <row r="237" spans="1:2" x14ac:dyDescent="0.25">
@@ -2289,7 +2311,7 @@
         <v>235</v>
       </c>
       <c r="B237">
-        <v>80171</v>
+        <v>54566</v>
       </c>
     </row>
     <row r="238" spans="1:2" x14ac:dyDescent="0.25">
@@ -2297,7 +2319,7 @@
         <v>236</v>
       </c>
       <c r="B238">
-        <v>80481</v>
+        <v>54526</v>
       </c>
     </row>
     <row r="239" spans="1:2" x14ac:dyDescent="0.25">
@@ -2305,7 +2327,7 @@
         <v>237</v>
       </c>
       <c r="B239">
-        <v>80802</v>
+        <v>54600</v>
       </c>
     </row>
     <row r="240" spans="1:2" x14ac:dyDescent="0.25">
@@ -2313,7 +2335,7 @@
         <v>238</v>
       </c>
       <c r="B240">
-        <v>80801</v>
+        <v>54461</v>
       </c>
     </row>
     <row r="241" spans="1:2" x14ac:dyDescent="0.25">
@@ -2321,7 +2343,7 @@
         <v>239</v>
       </c>
       <c r="B241">
-        <v>80423</v>
+        <v>54754</v>
       </c>
     </row>
     <row r="242" spans="1:2" x14ac:dyDescent="0.25">
@@ -2329,7 +2351,7 @@
         <v>240</v>
       </c>
       <c r="B242">
-        <v>80181</v>
+        <v>54576</v>
       </c>
     </row>
     <row r="243" spans="1:2" x14ac:dyDescent="0.25">
@@ -2337,7 +2359,7 @@
         <v>241</v>
       </c>
       <c r="B243">
-        <v>80805</v>
+        <v>54452</v>
       </c>
     </row>
     <row r="244" spans="1:2" x14ac:dyDescent="0.25">
@@ -2345,7 +2367,7 @@
         <v>242</v>
       </c>
       <c r="B244">
-        <v>80408</v>
+        <v>54447</v>
       </c>
     </row>
     <row r="245" spans="1:2" x14ac:dyDescent="0.25">
@@ -2353,7 +2375,7 @@
         <v>243</v>
       </c>
       <c r="B245">
-        <v>80059</v>
+        <v>54750</v>
       </c>
     </row>
     <row r="246" spans="1:2" x14ac:dyDescent="0.25">
@@ -2361,7 +2383,7 @@
         <v>244</v>
       </c>
       <c r="B246">
-        <v>80875</v>
+        <v>54636</v>
       </c>
     </row>
     <row r="247" spans="1:2" x14ac:dyDescent="0.25">
@@ -2369,7 +2391,7 @@
         <v>245</v>
       </c>
       <c r="B247">
-        <v>80897</v>
+        <v>54739</v>
       </c>
     </row>
     <row r="248" spans="1:2" x14ac:dyDescent="0.25">
@@ -2377,7 +2399,7 @@
         <v>246</v>
       </c>
       <c r="B248">
-        <v>80498</v>
+        <v>54564</v>
       </c>
     </row>
     <row r="249" spans="1:2" x14ac:dyDescent="0.25">
@@ -2385,7 +2407,7 @@
         <v>247</v>
       </c>
       <c r="B249">
-        <v>80172</v>
+        <v>54483</v>
       </c>
     </row>
     <row r="250" spans="1:2" x14ac:dyDescent="0.25">
@@ -2393,7 +2415,7 @@
         <v>248</v>
       </c>
       <c r="B250">
-        <v>80870</v>
+        <v>54517</v>
       </c>
     </row>
     <row r="251" spans="1:2" x14ac:dyDescent="0.25">
@@ -2401,7 +2423,7 @@
         <v>249</v>
       </c>
       <c r="B251">
-        <v>80798</v>
+        <v>54704</v>
       </c>
     </row>
     <row r="252" spans="1:2" x14ac:dyDescent="0.25">
@@ -2409,7 +2431,7 @@
         <v>250</v>
       </c>
       <c r="B252">
-        <v>80484</v>
+        <v>54904</v>
       </c>
     </row>
     <row r="253" spans="1:2" x14ac:dyDescent="0.25">
@@ -2417,7 +2439,7 @@
         <v>251</v>
       </c>
       <c r="B253">
-        <v>80503</v>
+        <v>54333</v>
       </c>
     </row>
     <row r="254" spans="1:2" x14ac:dyDescent="0.25">
@@ -2425,7 +2447,7 @@
         <v>252</v>
       </c>
       <c r="B254">
-        <v>80497</v>
+        <v>54464</v>
       </c>
     </row>
     <row r="255" spans="1:2" x14ac:dyDescent="0.25">
@@ -2433,7 +2455,7 @@
         <v>253</v>
       </c>
       <c r="B255">
-        <v>80761</v>
+        <v>54367</v>
       </c>
     </row>
     <row r="256" spans="1:2" x14ac:dyDescent="0.25">
@@ -2441,7 +2463,7 @@
         <v>254</v>
       </c>
       <c r="B256">
-        <v>80373</v>
+        <v>54748</v>
       </c>
     </row>
     <row r="257" spans="1:2" x14ac:dyDescent="0.25">
@@ -2449,7 +2471,7 @@
         <v>255</v>
       </c>
       <c r="B257">
-        <v>80152</v>
+        <v>54531</v>
       </c>
     </row>
     <row r="258" spans="1:2" x14ac:dyDescent="0.25">
@@ -2457,7 +2479,7 @@
         <v>256</v>
       </c>
       <c r="B258">
-        <v>80951</v>
+        <v>54476</v>
       </c>
     </row>
     <row r="259" spans="1:2" x14ac:dyDescent="0.25">
@@ -2465,7 +2487,7 @@
         <v>257</v>
       </c>
       <c r="B259">
-        <v>80510</v>
+        <v>54743</v>
       </c>
     </row>
     <row r="260" spans="1:2" x14ac:dyDescent="0.25">
@@ -2473,7 +2495,7 @@
         <v>258</v>
       </c>
       <c r="B260">
-        <v>80886</v>
+        <v>54362</v>
       </c>
     </row>
     <row r="261" spans="1:2" x14ac:dyDescent="0.25">
@@ -2481,7 +2503,7 @@
         <v>259</v>
       </c>
       <c r="B261">
-        <v>80487</v>
+        <v>54442</v>
       </c>
     </row>
     <row r="262" spans="1:2" x14ac:dyDescent="0.25">
@@ -2489,7 +2511,7 @@
         <v>260</v>
       </c>
       <c r="B262">
-        <v>80535</v>
+        <v>54437</v>
       </c>
     </row>
     <row r="263" spans="1:2" x14ac:dyDescent="0.25">
@@ -2497,7 +2519,7 @@
         <v>261</v>
       </c>
       <c r="B263">
-        <v>80504</v>
+        <v>54910</v>
       </c>
     </row>
     <row r="264" spans="1:2" x14ac:dyDescent="0.25">
@@ -2505,7 +2527,7 @@
         <v>262</v>
       </c>
       <c r="B264">
-        <v>80907</v>
+        <v>54583</v>
       </c>
     </row>
     <row r="265" spans="1:2" x14ac:dyDescent="0.25">
@@ -2513,7 +2535,7 @@
         <v>263</v>
       </c>
       <c r="B265">
-        <v>80910</v>
+        <v>54697</v>
       </c>
     </row>
     <row r="266" spans="1:2" x14ac:dyDescent="0.25">
@@ -2521,7 +2543,7 @@
         <v>264</v>
       </c>
       <c r="B266">
-        <v>80493</v>
+        <v>54567</v>
       </c>
     </row>
     <row r="267" spans="1:2" x14ac:dyDescent="0.25">
@@ -2529,7 +2551,7 @@
         <v>265</v>
       </c>
       <c r="B267">
-        <v>80880</v>
+        <v>54432</v>
       </c>
     </row>
     <row r="268" spans="1:2" x14ac:dyDescent="0.25">
@@ -2537,7 +2559,7 @@
         <v>266</v>
       </c>
       <c r="B268">
-        <v>80131</v>
+        <v>54752</v>
       </c>
     </row>
     <row r="269" spans="1:2" x14ac:dyDescent="0.25">
@@ -2545,7 +2567,7 @@
         <v>267</v>
       </c>
       <c r="B269">
-        <v>80545</v>
+        <v>54544</v>
       </c>
     </row>
     <row r="270" spans="1:2" x14ac:dyDescent="0.25">
@@ -2553,7 +2575,7 @@
         <v>268</v>
       </c>
       <c r="B270">
-        <v>79987</v>
+        <v>54588</v>
       </c>
     </row>
     <row r="271" spans="1:2" x14ac:dyDescent="0.25">
@@ -2561,7 +2583,7 @@
         <v>269</v>
       </c>
       <c r="B271">
-        <v>79948</v>
+        <v>54538</v>
       </c>
     </row>
     <row r="272" spans="1:2" x14ac:dyDescent="0.25">
@@ -2569,7 +2591,7 @@
         <v>270</v>
       </c>
       <c r="B272">
-        <v>80159</v>
+        <v>54899</v>
       </c>
     </row>
     <row r="273" spans="1:2" x14ac:dyDescent="0.25">
@@ -2577,7 +2599,7 @@
         <v>271</v>
       </c>
       <c r="B273">
-        <v>80009</v>
+        <v>54902</v>
       </c>
     </row>
     <row r="274" spans="1:2" x14ac:dyDescent="0.25">
@@ -2585,7 +2607,7 @@
         <v>272</v>
       </c>
       <c r="B274">
-        <v>80823</v>
+        <v>54899</v>
       </c>
     </row>
     <row r="275" spans="1:2" x14ac:dyDescent="0.25">
@@ -2593,7 +2615,7 @@
         <v>273</v>
       </c>
       <c r="B275">
-        <v>80165</v>
+        <v>54488</v>
       </c>
     </row>
     <row r="276" spans="1:2" x14ac:dyDescent="0.25">
@@ -2601,7 +2623,7 @@
         <v>274</v>
       </c>
       <c r="B276">
-        <v>80543</v>
+        <v>54423</v>
       </c>
     </row>
     <row r="277" spans="1:2" x14ac:dyDescent="0.25">
@@ -2609,7 +2631,7 @@
         <v>275</v>
       </c>
       <c r="B277">
-        <v>80564</v>
+        <v>54511</v>
       </c>
     </row>
     <row r="278" spans="1:2" x14ac:dyDescent="0.25">
@@ -2617,7 +2639,7 @@
         <v>276</v>
       </c>
       <c r="B278">
-        <v>80165</v>
+        <v>54756</v>
       </c>
     </row>
     <row r="279" spans="1:2" x14ac:dyDescent="0.25">
@@ -2625,7 +2647,7 @@
         <v>277</v>
       </c>
       <c r="B279">
-        <v>80527</v>
+        <v>54767</v>
       </c>
     </row>
     <row r="280" spans="1:2" x14ac:dyDescent="0.25">
@@ -2633,7 +2655,7 @@
         <v>278</v>
       </c>
       <c r="B280">
-        <v>80523</v>
+        <v>54772</v>
       </c>
     </row>
     <row r="281" spans="1:2" x14ac:dyDescent="0.25">
@@ -2641,7 +2663,7 @@
         <v>279</v>
       </c>
       <c r="B281">
-        <v>80014</v>
+        <v>54594</v>
       </c>
     </row>
     <row r="282" spans="1:2" x14ac:dyDescent="0.25">
@@ -2649,7 +2671,7 @@
         <v>280</v>
       </c>
       <c r="B282">
-        <v>80747</v>
+        <v>54637</v>
       </c>
     </row>
     <row r="283" spans="1:2" x14ac:dyDescent="0.25">
@@ -2657,7 +2679,7 @@
         <v>281</v>
       </c>
       <c r="B283">
-        <v>80146</v>
+        <v>54485</v>
       </c>
     </row>
     <row r="284" spans="1:2" x14ac:dyDescent="0.25">
@@ -2665,7 +2687,7 @@
         <v>282</v>
       </c>
       <c r="B284">
-        <v>80447</v>
+        <v>54655</v>
       </c>
     </row>
     <row r="285" spans="1:2" x14ac:dyDescent="0.25">
@@ -2673,7 +2695,7 @@
         <v>283</v>
       </c>
       <c r="B285">
-        <v>80151</v>
+        <v>54419</v>
       </c>
     </row>
     <row r="286" spans="1:2" x14ac:dyDescent="0.25">
@@ -2681,7 +2703,7 @@
         <v>284</v>
       </c>
       <c r="B286">
-        <v>80123</v>
+        <v>54652</v>
       </c>
     </row>
     <row r="287" spans="1:2" x14ac:dyDescent="0.25">
@@ -2689,7 +2711,7 @@
         <v>285</v>
       </c>
       <c r="B287">
-        <v>80559</v>
+        <v>54382</v>
       </c>
     </row>
     <row r="288" spans="1:2" x14ac:dyDescent="0.25">
@@ -2697,7 +2719,7 @@
         <v>286</v>
       </c>
       <c r="B288">
-        <v>80821</v>
+        <v>54728</v>
       </c>
     </row>
     <row r="289" spans="1:2" x14ac:dyDescent="0.25">
@@ -2705,7 +2727,7 @@
         <v>287</v>
       </c>
       <c r="B289">
-        <v>80004</v>
+        <v>54705</v>
       </c>
     </row>
     <row r="290" spans="1:2" x14ac:dyDescent="0.25">
@@ -2713,7 +2735,7 @@
         <v>288</v>
       </c>
       <c r="B290">
-        <v>80492</v>
+        <v>54761</v>
       </c>
     </row>
     <row r="291" spans="1:2" x14ac:dyDescent="0.25">
@@ -2721,7 +2743,7 @@
         <v>289</v>
       </c>
       <c r="B291">
-        <v>80000</v>
+        <v>54532</v>
       </c>
     </row>
     <row r="292" spans="1:2" x14ac:dyDescent="0.25">
@@ -2729,7 +2751,7 @@
         <v>290</v>
       </c>
       <c r="B292">
-        <v>80146</v>
+        <v>54776</v>
       </c>
     </row>
     <row r="293" spans="1:2" x14ac:dyDescent="0.25">
@@ -2737,7 +2759,7 @@
         <v>291</v>
       </c>
       <c r="B293">
-        <v>80814</v>
+        <v>54653</v>
       </c>
     </row>
     <row r="294" spans="1:2" x14ac:dyDescent="0.25">
@@ -2745,7 +2767,7 @@
         <v>292</v>
       </c>
       <c r="B294">
-        <v>79989</v>
+        <v>54577</v>
       </c>
     </row>
     <row r="295" spans="1:2" x14ac:dyDescent="0.25">
@@ -2753,7 +2775,7 @@
         <v>293</v>
       </c>
       <c r="B295">
-        <v>80001</v>
+        <v>54452</v>
       </c>
     </row>
     <row r="296" spans="1:2" x14ac:dyDescent="0.25">
@@ -2761,7 +2783,7 @@
         <v>294</v>
       </c>
       <c r="B296">
-        <v>80955</v>
+        <v>54782</v>
       </c>
     </row>
     <row r="297" spans="1:2" x14ac:dyDescent="0.25">
@@ -2769,7 +2791,7 @@
         <v>295</v>
       </c>
       <c r="B297">
-        <v>80932</v>
+        <v>54747</v>
       </c>
     </row>
     <row r="298" spans="1:2" x14ac:dyDescent="0.25">
@@ -2777,7 +2799,7 @@
         <v>296</v>
       </c>
       <c r="B298">
-        <v>80545</v>
+        <v>54747</v>
       </c>
     </row>
     <row r="299" spans="1:2" x14ac:dyDescent="0.25">
@@ -2785,7 +2807,7 @@
         <v>297</v>
       </c>
       <c r="B299">
-        <v>80511</v>
+        <v>54406</v>
       </c>
     </row>
     <row r="300" spans="1:2" x14ac:dyDescent="0.25">
@@ -2793,7 +2815,7 @@
         <v>298</v>
       </c>
       <c r="B300">
-        <v>80018</v>
+        <v>54465</v>
       </c>
     </row>
     <row r="301" spans="1:2" x14ac:dyDescent="0.25">
@@ -2801,7 +2823,7 @@
         <v>299</v>
       </c>
       <c r="B301">
-        <v>80025</v>
+        <v>54492</v>
       </c>
     </row>
     <row r="302" spans="1:2" x14ac:dyDescent="0.25">
@@ -2809,7 +2831,7 @@
         <v>300</v>
       </c>
       <c r="B302">
-        <v>78553</v>
+        <v>56280</v>
       </c>
     </row>
     <row r="303" spans="1:2" x14ac:dyDescent="0.25">
@@ -2817,7 +2839,7 @@
         <v>301</v>
       </c>
       <c r="B303">
-        <v>79020</v>
+        <v>56157</v>
       </c>
     </row>
     <row r="304" spans="1:2" x14ac:dyDescent="0.25">
@@ -2825,7 +2847,7 @@
         <v>302</v>
       </c>
       <c r="B304">
-        <v>78243</v>
+        <v>56267</v>
       </c>
     </row>
     <row r="305" spans="1:2" x14ac:dyDescent="0.25">
@@ -2833,7 +2855,7 @@
         <v>303</v>
       </c>
       <c r="B305">
-        <v>78591</v>
+        <v>56309</v>
       </c>
     </row>
     <row r="306" spans="1:2" x14ac:dyDescent="0.25">
@@ -2841,7 +2863,7 @@
         <v>304</v>
       </c>
       <c r="B306">
-        <v>78627</v>
+        <v>56392</v>
       </c>
     </row>
     <row r="307" spans="1:2" x14ac:dyDescent="0.25">
@@ -2849,7 +2871,7 @@
         <v>305</v>
       </c>
       <c r="B307">
-        <v>78595</v>
+        <v>56234</v>
       </c>
     </row>
     <row r="308" spans="1:2" x14ac:dyDescent="0.25">
@@ -2857,7 +2879,7 @@
         <v>306</v>
       </c>
       <c r="B308">
-        <v>78496</v>
+        <v>56089</v>
       </c>
     </row>
     <row r="309" spans="1:2" x14ac:dyDescent="0.25">
@@ -2865,7 +2887,7 @@
         <v>307</v>
       </c>
       <c r="B309">
-        <v>78291</v>
+        <v>56276</v>
       </c>
     </row>
     <row r="310" spans="1:2" x14ac:dyDescent="0.25">
@@ -2873,7 +2895,7 @@
         <v>308</v>
       </c>
       <c r="B310">
-        <v>78612</v>
+        <v>56388</v>
       </c>
     </row>
     <row r="311" spans="1:2" x14ac:dyDescent="0.25">
@@ -2881,7 +2903,7 @@
         <v>309</v>
       </c>
       <c r="B311">
-        <v>78990</v>
+        <v>56403</v>
       </c>
     </row>
     <row r="312" spans="1:2" x14ac:dyDescent="0.25">
@@ -2889,7 +2911,7 @@
         <v>310</v>
       </c>
       <c r="B312">
-        <v>78343</v>
+        <v>56113</v>
       </c>
     </row>
     <row r="313" spans="1:2" x14ac:dyDescent="0.25">
@@ -2897,7 +2919,7 @@
         <v>311</v>
       </c>
       <c r="B313">
-        <v>78295</v>
+        <v>56271</v>
       </c>
     </row>
     <row r="314" spans="1:2" x14ac:dyDescent="0.25">
@@ -2905,7 +2927,7 @@
         <v>312</v>
       </c>
       <c r="B314">
-        <v>78991</v>
+        <v>56921</v>
       </c>
     </row>
     <row r="315" spans="1:2" x14ac:dyDescent="0.25">
@@ -2913,7 +2935,7 @@
         <v>313</v>
       </c>
       <c r="B315">
-        <v>78791</v>
+        <v>56278</v>
       </c>
     </row>
     <row r="316" spans="1:2" x14ac:dyDescent="0.25">
@@ -2921,7 +2943,7 @@
         <v>314</v>
       </c>
       <c r="B316">
-        <v>78989</v>
+        <v>55771</v>
       </c>
     </row>
     <row r="317" spans="1:2" x14ac:dyDescent="0.25">
@@ -2929,7 +2951,7 @@
         <v>315</v>
       </c>
       <c r="B317">
-        <v>79022</v>
+        <v>56237</v>
       </c>
     </row>
     <row r="318" spans="1:2" x14ac:dyDescent="0.25">
@@ -2937,7 +2959,7 @@
         <v>316</v>
       </c>
       <c r="B318">
-        <v>78554</v>
+        <v>56379</v>
       </c>
     </row>
     <row r="319" spans="1:2" x14ac:dyDescent="0.25">
@@ -2945,7 +2967,7 @@
         <v>317</v>
       </c>
       <c r="B319">
-        <v>78989</v>
+        <v>57041</v>
       </c>
     </row>
     <row r="320" spans="1:2" x14ac:dyDescent="0.25">
@@ -2953,7 +2975,7 @@
         <v>318</v>
       </c>
       <c r="B320">
-        <v>78566</v>
+        <v>56868</v>
       </c>
     </row>
     <row r="321" spans="1:2" x14ac:dyDescent="0.25">
@@ -2961,7 +2983,7 @@
         <v>319</v>
       </c>
       <c r="B321">
-        <v>78287</v>
+        <v>56396</v>
       </c>
     </row>
     <row r="322" spans="1:2" x14ac:dyDescent="0.25">
@@ -2969,7 +2991,7 @@
         <v>320</v>
       </c>
       <c r="B322">
-        <v>79022</v>
+        <v>56242</v>
       </c>
     </row>
     <row r="323" spans="1:2" x14ac:dyDescent="0.25">
@@ -2977,7 +2999,7 @@
         <v>321</v>
       </c>
       <c r="B323">
-        <v>78592</v>
+        <v>56851</v>
       </c>
     </row>
     <row r="324" spans="1:2" x14ac:dyDescent="0.25">
@@ -2985,7 +3007,7 @@
         <v>322</v>
       </c>
       <c r="B324">
-        <v>79022</v>
+        <v>56383</v>
       </c>
     </row>
     <row r="325" spans="1:2" x14ac:dyDescent="0.25">
@@ -2993,7 +3015,7 @@
         <v>323</v>
       </c>
       <c r="B325">
-        <v>78596</v>
+        <v>56406</v>
       </c>
     </row>
     <row r="326" spans="1:2" x14ac:dyDescent="0.25">
@@ -3001,7 +3023,7 @@
         <v>324</v>
       </c>
       <c r="B326">
-        <v>78989</v>
+        <v>56312</v>
       </c>
     </row>
     <row r="327" spans="1:2" x14ac:dyDescent="0.25">
@@ -3009,7 +3031,7 @@
         <v>325</v>
       </c>
       <c r="B327">
-        <v>78256</v>
+        <v>56283</v>
       </c>
     </row>
     <row r="328" spans="1:2" x14ac:dyDescent="0.25">
@@ -3017,7 +3039,7 @@
         <v>326</v>
       </c>
       <c r="B328">
-        <v>78298</v>
+        <v>56167</v>
       </c>
     </row>
     <row r="329" spans="1:2" x14ac:dyDescent="0.25">
@@ -3025,7 +3047,7 @@
         <v>327</v>
       </c>
       <c r="B329">
-        <v>78605</v>
+        <v>56906</v>
       </c>
     </row>
     <row r="330" spans="1:2" x14ac:dyDescent="0.25">
@@ -3033,7 +3055,7 @@
         <v>328</v>
       </c>
       <c r="B330">
-        <v>78306</v>
+        <v>56203</v>
       </c>
     </row>
     <row r="331" spans="1:2" x14ac:dyDescent="0.25">
@@ -3041,7 +3063,7 @@
         <v>329</v>
       </c>
       <c r="B331">
-        <v>78562</v>
+        <v>56421</v>
       </c>
     </row>
     <row r="332" spans="1:2" x14ac:dyDescent="0.25">
@@ -3049,7 +3071,7 @@
         <v>330</v>
       </c>
       <c r="B332">
-        <v>78989</v>
+        <v>56379</v>
       </c>
     </row>
     <row r="333" spans="1:2" x14ac:dyDescent="0.25">
@@ -3057,7 +3079,7 @@
         <v>331</v>
       </c>
       <c r="B333">
-        <v>78620</v>
+        <v>56198</v>
       </c>
     </row>
     <row r="334" spans="1:2" x14ac:dyDescent="0.25">
@@ -3065,7 +3087,7 @@
         <v>332</v>
       </c>
       <c r="B334">
-        <v>78989</v>
+        <v>56245</v>
       </c>
     </row>
     <row r="335" spans="1:2" x14ac:dyDescent="0.25">
@@ -3073,7 +3095,7 @@
         <v>333</v>
       </c>
       <c r="B335">
-        <v>78195</v>
+        <v>56320</v>
       </c>
     </row>
     <row r="336" spans="1:2" x14ac:dyDescent="0.25">
@@ -3081,7 +3103,7 @@
         <v>334</v>
       </c>
       <c r="B336">
-        <v>78292</v>
+        <v>56194</v>
       </c>
     </row>
     <row r="337" spans="1:2" x14ac:dyDescent="0.25">
@@ -3089,7 +3111,7 @@
         <v>335</v>
       </c>
       <c r="B337">
-        <v>78269</v>
+        <v>56287</v>
       </c>
     </row>
     <row r="338" spans="1:2" x14ac:dyDescent="0.25">
@@ -3097,7 +3119,7 @@
         <v>336</v>
       </c>
       <c r="B338">
-        <v>79044</v>
+        <v>56216</v>
       </c>
     </row>
     <row r="339" spans="1:2" x14ac:dyDescent="0.25">
@@ -3105,7 +3127,7 @@
         <v>337</v>
       </c>
       <c r="B339">
-        <v>78574</v>
+        <v>56207</v>
       </c>
     </row>
     <row r="340" spans="1:2" x14ac:dyDescent="0.25">
@@ -3113,7 +3135,7 @@
         <v>338</v>
       </c>
       <c r="B340">
-        <v>78336</v>
+        <v>55955</v>
       </c>
     </row>
     <row r="341" spans="1:2" x14ac:dyDescent="0.25">
@@ -3121,7 +3143,7 @@
         <v>339</v>
       </c>
       <c r="B341">
-        <v>78217</v>
+        <v>56086</v>
       </c>
     </row>
     <row r="342" spans="1:2" x14ac:dyDescent="0.25">
@@ -3129,7 +3151,7 @@
         <v>340</v>
       </c>
       <c r="B342">
-        <v>78227</v>
+        <v>56145</v>
       </c>
     </row>
     <row r="343" spans="1:2" x14ac:dyDescent="0.25">
@@ -3137,7 +3159,7 @@
         <v>341</v>
       </c>
       <c r="B343">
-        <v>78570</v>
+        <v>56212</v>
       </c>
     </row>
     <row r="344" spans="1:2" x14ac:dyDescent="0.25">
@@ -3145,7 +3167,7 @@
         <v>342</v>
       </c>
       <c r="B344">
-        <v>78246</v>
+        <v>55935</v>
       </c>
     </row>
     <row r="345" spans="1:2" x14ac:dyDescent="0.25">
@@ -3153,7 +3175,7 @@
         <v>343</v>
       </c>
       <c r="B345">
-        <v>78991</v>
+        <v>56281</v>
       </c>
     </row>
     <row r="346" spans="1:2" x14ac:dyDescent="0.25">
@@ -3161,7 +3183,7 @@
         <v>344</v>
       </c>
       <c r="B346">
-        <v>78237</v>
+        <v>56883</v>
       </c>
     </row>
     <row r="347" spans="1:2" x14ac:dyDescent="0.25">
@@ -3169,7 +3191,7 @@
         <v>345</v>
       </c>
       <c r="B347">
-        <v>78988</v>
+        <v>56183</v>
       </c>
     </row>
     <row r="348" spans="1:2" x14ac:dyDescent="0.25">
@@ -3177,7 +3199,7 @@
         <v>346</v>
       </c>
       <c r="B348">
-        <v>78989</v>
+        <v>56187</v>
       </c>
     </row>
     <row r="349" spans="1:2" x14ac:dyDescent="0.25">
@@ -3185,7 +3207,7 @@
         <v>347</v>
       </c>
       <c r="B349">
-        <v>78551</v>
+        <v>56141</v>
       </c>
     </row>
     <row r="350" spans="1:2" x14ac:dyDescent="0.25">
@@ -3193,7 +3215,7 @@
         <v>348</v>
       </c>
       <c r="B350">
-        <v>78585</v>
+        <v>56220</v>
       </c>
     </row>
     <row r="351" spans="1:2" x14ac:dyDescent="0.25">
@@ -3201,7 +3223,7 @@
         <v>349</v>
       </c>
       <c r="B351">
-        <v>78988</v>
+        <v>56379</v>
       </c>
     </row>
     <row r="352" spans="1:2" x14ac:dyDescent="0.25">
@@ -3209,7 +3231,7 @@
         <v>350</v>
       </c>
       <c r="B352">
-        <v>78551</v>
+        <v>56411</v>
       </c>
     </row>
     <row r="353" spans="1:2" x14ac:dyDescent="0.25">
@@ -3217,7 +3239,7 @@
         <v>351</v>
       </c>
       <c r="B353">
-        <v>79044</v>
+        <v>56355</v>
       </c>
     </row>
     <row r="354" spans="1:2" x14ac:dyDescent="0.25">
@@ -3225,7 +3247,7 @@
         <v>352</v>
       </c>
       <c r="B354">
-        <v>78989</v>
+        <v>55766</v>
       </c>
     </row>
     <row r="355" spans="1:2" x14ac:dyDescent="0.25">
@@ -3233,7 +3255,7 @@
         <v>353</v>
       </c>
       <c r="B355">
-        <v>78987</v>
+        <v>56336</v>
       </c>
     </row>
     <row r="356" spans="1:2" x14ac:dyDescent="0.25">
@@ -3241,7 +3263,7 @@
         <v>354</v>
       </c>
       <c r="B356">
-        <v>79021</v>
+        <v>56283</v>
       </c>
     </row>
     <row r="357" spans="1:2" x14ac:dyDescent="0.25">
@@ -3249,7 +3271,7 @@
         <v>355</v>
       </c>
       <c r="B357">
-        <v>78272</v>
+        <v>57045</v>
       </c>
     </row>
     <row r="358" spans="1:2" x14ac:dyDescent="0.25">
@@ -3257,7 +3279,7 @@
         <v>356</v>
       </c>
       <c r="B358">
-        <v>79043</v>
+        <v>56248</v>
       </c>
     </row>
     <row r="359" spans="1:2" x14ac:dyDescent="0.25">
@@ -3265,7 +3287,7 @@
         <v>357</v>
       </c>
       <c r="B359">
-        <v>78599</v>
+        <v>56252</v>
       </c>
     </row>
     <row r="360" spans="1:2" x14ac:dyDescent="0.25">
@@ -3273,7 +3295,7 @@
         <v>358</v>
       </c>
       <c r="B360">
-        <v>78988</v>
+        <v>56229</v>
       </c>
     </row>
     <row r="361" spans="1:2" x14ac:dyDescent="0.25">
@@ -3281,7 +3303,7 @@
         <v>359</v>
       </c>
       <c r="B361">
-        <v>78551</v>
+        <v>55932</v>
       </c>
     </row>
     <row r="362" spans="1:2" x14ac:dyDescent="0.25">
@@ -3289,7 +3311,7 @@
         <v>360</v>
       </c>
       <c r="B362">
-        <v>78277</v>
+        <v>56377</v>
       </c>
     </row>
     <row r="363" spans="1:2" x14ac:dyDescent="0.25">
@@ -3297,7 +3319,7 @@
         <v>361</v>
       </c>
       <c r="B363">
-        <v>78780</v>
+        <v>56103</v>
       </c>
     </row>
     <row r="364" spans="1:2" x14ac:dyDescent="0.25">
@@ -3305,7 +3327,7 @@
         <v>362</v>
       </c>
       <c r="B364">
-        <v>78551</v>
+        <v>56907</v>
       </c>
     </row>
     <row r="365" spans="1:2" x14ac:dyDescent="0.25">
@@ -3313,7 +3335,7 @@
         <v>363</v>
       </c>
       <c r="B365">
-        <v>78491</v>
+        <v>56911</v>
       </c>
     </row>
     <row r="366" spans="1:2" x14ac:dyDescent="0.25">
@@ -3321,7 +3343,7 @@
         <v>364</v>
       </c>
       <c r="B366">
-        <v>78174</v>
+        <v>56298</v>
       </c>
     </row>
     <row r="367" spans="1:2" x14ac:dyDescent="0.25">
@@ -3329,7 +3351,7 @@
         <v>365</v>
       </c>
       <c r="B367">
-        <v>78987</v>
+        <v>56915</v>
       </c>
     </row>
     <row r="368" spans="1:2" x14ac:dyDescent="0.25">
@@ -3337,7 +3359,7 @@
         <v>366</v>
       </c>
       <c r="B368">
-        <v>78486</v>
+        <v>56107</v>
       </c>
     </row>
     <row r="369" spans="1:2" x14ac:dyDescent="0.25">
@@ -3345,7 +3367,7 @@
         <v>367</v>
       </c>
       <c r="B369">
-        <v>78262</v>
+        <v>56152</v>
       </c>
     </row>
     <row r="370" spans="1:2" x14ac:dyDescent="0.25">
@@ -3353,7 +3375,7 @@
         <v>368</v>
       </c>
       <c r="B370">
-        <v>78224</v>
+        <v>56302</v>
       </c>
     </row>
     <row r="371" spans="1:2" x14ac:dyDescent="0.25">
@@ -3361,7 +3383,7 @@
         <v>369</v>
       </c>
       <c r="B371">
-        <v>78301</v>
+        <v>56099</v>
       </c>
     </row>
     <row r="372" spans="1:2" x14ac:dyDescent="0.25">
@@ -3369,7 +3391,7 @@
         <v>370</v>
       </c>
       <c r="B372">
-        <v>78258</v>
+        <v>56158</v>
       </c>
     </row>
     <row r="373" spans="1:2" x14ac:dyDescent="0.25">
@@ -3377,7 +3399,7 @@
         <v>371</v>
       </c>
       <c r="B373">
-        <v>78648</v>
+        <v>56984</v>
       </c>
     </row>
     <row r="374" spans="1:2" x14ac:dyDescent="0.25">
@@ -3385,7 +3407,7 @@
         <v>372</v>
       </c>
       <c r="B374">
-        <v>78609</v>
+        <v>56172</v>
       </c>
     </row>
     <row r="375" spans="1:2" x14ac:dyDescent="0.25">
@@ -3393,7 +3415,7 @@
         <v>373</v>
       </c>
       <c r="B375">
-        <v>78786</v>
+        <v>56148</v>
       </c>
     </row>
     <row r="376" spans="1:2" x14ac:dyDescent="0.25">
@@ -3401,7 +3423,7 @@
         <v>374</v>
       </c>
       <c r="B376">
-        <v>78987</v>
+        <v>56127</v>
       </c>
     </row>
     <row r="377" spans="1:2" x14ac:dyDescent="0.25">
@@ -3409,7 +3431,7 @@
         <v>375</v>
       </c>
       <c r="B377">
-        <v>78554</v>
+        <v>56095</v>
       </c>
     </row>
     <row r="378" spans="1:2" x14ac:dyDescent="0.25">
@@ -3417,7 +3439,7 @@
         <v>376</v>
       </c>
       <c r="B378">
-        <v>78549</v>
+        <v>56168</v>
       </c>
     </row>
     <row r="379" spans="1:2" x14ac:dyDescent="0.25">
@@ -3425,7 +3447,7 @@
         <v>377</v>
       </c>
       <c r="B379">
-        <v>78987</v>
+        <v>56315</v>
       </c>
     </row>
     <row r="380" spans="1:2" x14ac:dyDescent="0.25">
@@ -3433,7 +3455,7 @@
         <v>378</v>
       </c>
       <c r="B380">
-        <v>78772</v>
+        <v>56267</v>
       </c>
     </row>
     <row r="381" spans="1:2" x14ac:dyDescent="0.25">
@@ -3441,7 +3463,7 @@
         <v>379</v>
       </c>
       <c r="B381">
-        <v>78776</v>
+        <v>56260</v>
       </c>
     </row>
     <row r="382" spans="1:2" x14ac:dyDescent="0.25">
@@ -3449,7 +3471,7 @@
         <v>380</v>
       </c>
       <c r="B382">
-        <v>78986</v>
+        <v>56288</v>
       </c>
     </row>
     <row r="383" spans="1:2" x14ac:dyDescent="0.25">
@@ -3457,7 +3479,7 @@
         <v>381</v>
       </c>
       <c r="B383">
-        <v>78346</v>
+        <v>56294</v>
       </c>
     </row>
     <row r="384" spans="1:2" x14ac:dyDescent="0.25">
@@ -3465,7 +3487,7 @@
         <v>382</v>
       </c>
       <c r="B384">
-        <v>78619</v>
+        <v>56290</v>
       </c>
     </row>
     <row r="385" spans="1:2" x14ac:dyDescent="0.25">
@@ -3473,7 +3495,7 @@
         <v>383</v>
       </c>
       <c r="B385">
-        <v>78676</v>
+        <v>56270</v>
       </c>
     </row>
     <row r="386" spans="1:2" x14ac:dyDescent="0.25">
@@ -3481,7 +3503,7 @@
         <v>384</v>
       </c>
       <c r="B386">
-        <v>78987</v>
+        <v>56397</v>
       </c>
     </row>
     <row r="387" spans="1:2" x14ac:dyDescent="0.25">
@@ -3489,7 +3511,7 @@
         <v>385</v>
       </c>
       <c r="B387">
-        <v>78336</v>
+        <v>55952</v>
       </c>
     </row>
     <row r="388" spans="1:2" x14ac:dyDescent="0.25">
@@ -3497,7 +3519,7 @@
         <v>386</v>
       </c>
       <c r="B388">
-        <v>78987</v>
+        <v>56222</v>
       </c>
     </row>
     <row r="389" spans="1:2" x14ac:dyDescent="0.25">
@@ -3505,7 +3527,7 @@
         <v>387</v>
       </c>
       <c r="B389">
-        <v>78555</v>
+        <v>56261</v>
       </c>
     </row>
     <row r="390" spans="1:2" x14ac:dyDescent="0.25">
@@ -3513,7 +3535,7 @@
         <v>388</v>
       </c>
       <c r="B390">
-        <v>77796</v>
+        <v>56342</v>
       </c>
     </row>
     <row r="391" spans="1:2" x14ac:dyDescent="0.25">
@@ -3521,7 +3543,7 @@
         <v>389</v>
       </c>
       <c r="B391">
-        <v>78309</v>
+        <v>56256</v>
       </c>
     </row>
     <row r="392" spans="1:2" x14ac:dyDescent="0.25">
@@ -3529,7 +3551,7 @@
         <v>390</v>
       </c>
       <c r="B392">
-        <v>78227</v>
+        <v>57045</v>
       </c>
     </row>
     <row r="393" spans="1:2" x14ac:dyDescent="0.25">
@@ -3537,7 +3559,7 @@
         <v>391</v>
       </c>
       <c r="B393">
-        <v>78249</v>
+        <v>57045</v>
       </c>
     </row>
     <row r="394" spans="1:2" x14ac:dyDescent="0.25">
@@ -3545,7 +3567,7 @@
         <v>392</v>
       </c>
       <c r="B394">
-        <v>78211</v>
+        <v>56879</v>
       </c>
     </row>
     <row r="395" spans="1:2" x14ac:dyDescent="0.25">
@@ -3553,7 +3575,7 @@
         <v>393</v>
       </c>
       <c r="B395">
-        <v>78552</v>
+        <v>56383</v>
       </c>
     </row>
     <row r="396" spans="1:2" x14ac:dyDescent="0.25">
@@ -3561,7 +3583,7 @@
         <v>394</v>
       </c>
       <c r="B396">
-        <v>78505</v>
+        <v>56381</v>
       </c>
     </row>
     <row r="397" spans="1:2" x14ac:dyDescent="0.25">
@@ -3569,7 +3591,7 @@
         <v>395</v>
       </c>
       <c r="B397">
-        <v>78231</v>
+        <v>56882</v>
       </c>
     </row>
     <row r="398" spans="1:2" x14ac:dyDescent="0.25">
@@ -3577,7 +3599,7 @@
         <v>396</v>
       </c>
       <c r="B398">
-        <v>78512</v>
+        <v>56175</v>
       </c>
     </row>
     <row r="399" spans="1:2" x14ac:dyDescent="0.25">
@@ -3585,7 +3607,7 @@
         <v>397</v>
       </c>
       <c r="B399">
-        <v>78320</v>
+        <v>56414</v>
       </c>
     </row>
     <row r="400" spans="1:2" x14ac:dyDescent="0.25">
@@ -3593,7 +3615,7 @@
         <v>398</v>
       </c>
       <c r="B400">
-        <v>78987</v>
+        <v>56090</v>
       </c>
     </row>
     <row r="401" spans="1:2" x14ac:dyDescent="0.25">
@@ -3601,7 +3623,7 @@
         <v>399</v>
       </c>
       <c r="B401">
-        <v>78987</v>
+        <v>56382</v>
       </c>
     </row>
     <row r="402" spans="1:2" x14ac:dyDescent="0.25">
@@ -3609,7 +3631,7 @@
         <v>400</v>
       </c>
       <c r="B402">
-        <v>79515</v>
+        <v>59203</v>
       </c>
     </row>
     <row r="403" spans="1:2" x14ac:dyDescent="0.25">
@@ -3617,7 +3639,7 @@
         <v>401</v>
       </c>
       <c r="B403">
-        <v>79544</v>
+        <v>58288</v>
       </c>
     </row>
     <row r="404" spans="1:2" x14ac:dyDescent="0.25">
@@ -3625,7 +3647,7 @@
         <v>402</v>
       </c>
       <c r="B404">
-        <v>79400</v>
+        <v>58605</v>
       </c>
     </row>
     <row r="405" spans="1:2" x14ac:dyDescent="0.25">
@@ -3633,7 +3655,7 @@
         <v>403</v>
       </c>
       <c r="B405">
-        <v>79506</v>
+        <v>59409</v>
       </c>
     </row>
     <row r="406" spans="1:2" x14ac:dyDescent="0.25">
@@ -3641,7 +3663,7 @@
         <v>404</v>
       </c>
       <c r="B406">
-        <v>78986</v>
+        <v>59228</v>
       </c>
     </row>
     <row r="407" spans="1:2" x14ac:dyDescent="0.25">
@@ -3649,7 +3671,7 @@
         <v>405</v>
       </c>
       <c r="B407">
-        <v>78980</v>
+        <v>58466</v>
       </c>
     </row>
     <row r="408" spans="1:2" x14ac:dyDescent="0.25">
@@ -3657,7 +3679,7 @@
         <v>406</v>
       </c>
       <c r="B408">
-        <v>79131</v>
+        <v>58422</v>
       </c>
     </row>
     <row r="409" spans="1:2" x14ac:dyDescent="0.25">
@@ -3665,7 +3687,7 @@
         <v>407</v>
       </c>
       <c r="B409">
-        <v>79494</v>
+        <v>58304</v>
       </c>
     </row>
     <row r="410" spans="1:2" x14ac:dyDescent="0.25">
@@ -3673,7 +3695,7 @@
         <v>408</v>
       </c>
       <c r="B410">
-        <v>79120</v>
+        <v>59212</v>
       </c>
     </row>
     <row r="411" spans="1:2" x14ac:dyDescent="0.25">
@@ -3681,7 +3703,7 @@
         <v>409</v>
       </c>
       <c r="B411">
-        <v>79267</v>
+        <v>59315</v>
       </c>
     </row>
     <row r="412" spans="1:2" x14ac:dyDescent="0.25">
@@ -3689,7 +3711,7 @@
         <v>410</v>
       </c>
       <c r="B412">
-        <v>79263</v>
+        <v>58318</v>
       </c>
     </row>
     <row r="413" spans="1:2" x14ac:dyDescent="0.25">
@@ -3697,7 +3719,7 @@
         <v>411</v>
       </c>
       <c r="B413">
-        <v>79486</v>
+        <v>58314</v>
       </c>
     </row>
     <row r="414" spans="1:2" x14ac:dyDescent="0.25">
@@ -3705,7 +3727,7 @@
         <v>412</v>
       </c>
       <c r="B414">
-        <v>79255</v>
+        <v>58297</v>
       </c>
     </row>
     <row r="415" spans="1:2" x14ac:dyDescent="0.25">
@@ -3713,7 +3735,7 @@
         <v>413</v>
       </c>
       <c r="B415">
-        <v>79489</v>
+        <v>58285</v>
       </c>
     </row>
     <row r="416" spans="1:2" x14ac:dyDescent="0.25">
@@ -3721,7 +3743,7 @@
         <v>414</v>
       </c>
       <c r="B416">
-        <v>79206</v>
+        <v>59207</v>
       </c>
     </row>
     <row r="417" spans="1:2" x14ac:dyDescent="0.25">
@@ -3729,7 +3751,7 @@
         <v>415</v>
       </c>
       <c r="B417">
-        <v>79547</v>
+        <v>58280</v>
       </c>
     </row>
     <row r="418" spans="1:2" x14ac:dyDescent="0.25">
@@ -3737,7 +3759,7 @@
         <v>416</v>
       </c>
       <c r="B418">
-        <v>79510</v>
+        <v>58309</v>
       </c>
     </row>
     <row r="419" spans="1:2" x14ac:dyDescent="0.25">
@@ -3745,7 +3767,7 @@
         <v>417</v>
       </c>
       <c r="B419">
-        <v>79126</v>
+        <v>58298</v>
       </c>
     </row>
     <row r="420" spans="1:2" x14ac:dyDescent="0.25">
@@ -3753,7 +3775,7 @@
         <v>418</v>
       </c>
       <c r="B420">
-        <v>80121</v>
+        <v>58305</v>
       </c>
     </row>
     <row r="421" spans="1:2" x14ac:dyDescent="0.25">
@@ -3761,7 +3783,7 @@
         <v>419</v>
       </c>
       <c r="B421">
-        <v>79470</v>
+        <v>58320</v>
       </c>
     </row>
     <row r="422" spans="1:2" x14ac:dyDescent="0.25">
@@ -3769,7 +3791,7 @@
         <v>420</v>
       </c>
       <c r="B422">
-        <v>79217</v>
+        <v>59202</v>
       </c>
     </row>
     <row r="423" spans="1:2" x14ac:dyDescent="0.25">
@@ -3777,7 +3799,7 @@
         <v>421</v>
       </c>
       <c r="B423">
-        <v>79004</v>
+        <v>59261</v>
       </c>
     </row>
     <row r="424" spans="1:2" x14ac:dyDescent="0.25">
@@ -3785,7 +3807,7 @@
         <v>422</v>
       </c>
       <c r="B424">
-        <v>79838</v>
+        <v>58290</v>
       </c>
     </row>
     <row r="425" spans="1:2" x14ac:dyDescent="0.25">
@@ -3793,7 +3815,7 @@
         <v>423</v>
       </c>
       <c r="B425">
-        <v>78998</v>
+        <v>59252</v>
       </c>
     </row>
     <row r="426" spans="1:2" x14ac:dyDescent="0.25">
@@ -3801,7 +3823,7 @@
         <v>424</v>
       </c>
       <c r="B426">
-        <v>79470</v>
+        <v>58368</v>
       </c>
     </row>
     <row r="427" spans="1:2" x14ac:dyDescent="0.25">
@@ -3809,7 +3831,7 @@
         <v>425</v>
       </c>
       <c r="B427">
-        <v>79409</v>
+        <v>59256</v>
       </c>
     </row>
     <row r="428" spans="1:2" x14ac:dyDescent="0.25">
@@ -3817,7 +3839,7 @@
         <v>426</v>
       </c>
       <c r="B428">
-        <v>78993</v>
+        <v>58370</v>
       </c>
     </row>
     <row r="429" spans="1:2" x14ac:dyDescent="0.25">
@@ -3825,7 +3847,7 @@
         <v>427</v>
       </c>
       <c r="B429">
-        <v>79196</v>
+        <v>58421</v>
       </c>
     </row>
     <row r="430" spans="1:2" x14ac:dyDescent="0.25">
@@ -3833,7 +3855,7 @@
         <v>428</v>
       </c>
       <c r="B430">
-        <v>79139</v>
+        <v>59316</v>
       </c>
     </row>
     <row r="431" spans="1:2" x14ac:dyDescent="0.25">
@@ -3841,7 +3863,7 @@
         <v>429</v>
       </c>
       <c r="B431">
-        <v>79481</v>
+        <v>59247</v>
       </c>
     </row>
     <row r="432" spans="1:2" x14ac:dyDescent="0.25">
@@ -3849,7 +3871,7 @@
         <v>430</v>
       </c>
       <c r="B432">
-        <v>79283</v>
+        <v>58392</v>
       </c>
     </row>
     <row r="433" spans="1:2" x14ac:dyDescent="0.25">
@@ -3857,7 +3879,7 @@
         <v>431</v>
       </c>
       <c r="B433">
-        <v>79123</v>
+        <v>59263</v>
       </c>
     </row>
     <row r="434" spans="1:2" x14ac:dyDescent="0.25">
@@ -3865,7 +3887,7 @@
         <v>432</v>
       </c>
       <c r="B434">
-        <v>79032</v>
+        <v>59240</v>
       </c>
     </row>
     <row r="435" spans="1:2" x14ac:dyDescent="0.25">
@@ -3873,7 +3895,7 @@
         <v>433</v>
       </c>
       <c r="B435">
-        <v>79500</v>
+        <v>58602</v>
       </c>
     </row>
     <row r="436" spans="1:2" x14ac:dyDescent="0.25">
@@ -3881,7 +3903,7 @@
         <v>434</v>
       </c>
       <c r="B436">
-        <v>79161</v>
+        <v>59323</v>
       </c>
     </row>
     <row r="437" spans="1:2" x14ac:dyDescent="0.25">
@@ -3889,7 +3911,7 @@
         <v>435</v>
       </c>
       <c r="B437">
-        <v>79141</v>
+        <v>58367</v>
       </c>
     </row>
     <row r="438" spans="1:2" x14ac:dyDescent="0.25">
@@ -3897,7 +3919,7 @@
         <v>436</v>
       </c>
       <c r="B438">
-        <v>78973</v>
+        <v>58472</v>
       </c>
     </row>
     <row r="439" spans="1:2" x14ac:dyDescent="0.25">
@@ -3905,7 +3927,7 @@
         <v>437</v>
       </c>
       <c r="B439">
-        <v>79390</v>
+        <v>58593</v>
       </c>
     </row>
     <row r="440" spans="1:2" x14ac:dyDescent="0.25">
@@ -3913,7 +3935,7 @@
         <v>438</v>
       </c>
       <c r="B440">
-        <v>79167</v>
+        <v>58541</v>
       </c>
     </row>
     <row r="441" spans="1:2" x14ac:dyDescent="0.25">
@@ -3921,7 +3943,7 @@
         <v>439</v>
       </c>
       <c r="B441">
-        <v>79134</v>
+        <v>59570</v>
       </c>
     </row>
     <row r="442" spans="1:2" x14ac:dyDescent="0.25">
@@ -3929,7 +3951,7 @@
         <v>440</v>
       </c>
       <c r="B442">
-        <v>79188</v>
+        <v>58327</v>
       </c>
     </row>
     <row r="443" spans="1:2" x14ac:dyDescent="0.25">
@@ -3937,7 +3959,7 @@
         <v>441</v>
       </c>
       <c r="B443">
-        <v>79006</v>
+        <v>58535</v>
       </c>
     </row>
     <row r="444" spans="1:2" x14ac:dyDescent="0.25">
@@ -3945,7 +3967,7 @@
         <v>442</v>
       </c>
       <c r="B444">
-        <v>79035</v>
+        <v>58411</v>
       </c>
     </row>
     <row r="445" spans="1:2" x14ac:dyDescent="0.25">
@@ -3953,7 +3975,7 @@
         <v>443</v>
       </c>
       <c r="B445">
-        <v>79177</v>
+        <v>58538</v>
       </c>
     </row>
     <row r="446" spans="1:2" x14ac:dyDescent="0.25">
@@ -3961,7 +3983,7 @@
         <v>444</v>
       </c>
       <c r="B446">
-        <v>79259</v>
+        <v>58570</v>
       </c>
     </row>
     <row r="447" spans="1:2" x14ac:dyDescent="0.25">
@@ -3969,7 +3991,7 @@
         <v>445</v>
       </c>
       <c r="B447">
-        <v>80271</v>
+        <v>58585</v>
       </c>
     </row>
     <row r="448" spans="1:2" x14ac:dyDescent="0.25">
@@ -3977,7 +3999,7 @@
         <v>446</v>
       </c>
       <c r="B448">
-        <v>80120</v>
+        <v>58612</v>
       </c>
     </row>
     <row r="449" spans="1:2" x14ac:dyDescent="0.25">
@@ -3985,7 +4007,7 @@
         <v>447</v>
       </c>
       <c r="B449">
-        <v>79043</v>
+        <v>59314</v>
       </c>
     </row>
     <row r="450" spans="1:2" x14ac:dyDescent="0.25">
@@ -3993,7 +4015,7 @@
         <v>448</v>
       </c>
       <c r="B450">
-        <v>79705</v>
+        <v>58377</v>
       </c>
     </row>
     <row r="451" spans="1:2" x14ac:dyDescent="0.25">
@@ -4001,7 +4023,7 @@
         <v>449</v>
       </c>
       <c r="B451">
-        <v>79049</v>
+        <v>59568</v>
       </c>
     </row>
     <row r="452" spans="1:2" x14ac:dyDescent="0.25">
@@ -4009,7 +4031,7 @@
         <v>450</v>
       </c>
       <c r="B452">
-        <v>79537</v>
+        <v>58548</v>
       </c>
     </row>
     <row r="453" spans="1:2" x14ac:dyDescent="0.25">
@@ -4017,7 +4039,7 @@
         <v>451</v>
       </c>
       <c r="B453">
-        <v>79027</v>
+        <v>59234</v>
       </c>
     </row>
     <row r="454" spans="1:2" x14ac:dyDescent="0.25">
@@ -4025,7 +4047,7 @@
         <v>452</v>
       </c>
       <c r="B454">
-        <v>79532</v>
+        <v>58444</v>
       </c>
     </row>
     <row r="455" spans="1:2" x14ac:dyDescent="0.25">
@@ -4033,7 +4055,7 @@
         <v>453</v>
       </c>
       <c r="B455">
-        <v>79464</v>
+        <v>58363</v>
       </c>
     </row>
     <row r="456" spans="1:2" x14ac:dyDescent="0.25">
@@ -4041,7 +4063,7 @@
         <v>454</v>
       </c>
       <c r="B456">
-        <v>80242</v>
+        <v>58369</v>
       </c>
     </row>
     <row r="457" spans="1:2" x14ac:dyDescent="0.25">
@@ -4049,7 +4071,7 @@
         <v>455</v>
       </c>
       <c r="B457">
-        <v>79212</v>
+        <v>59263</v>
       </c>
     </row>
     <row r="458" spans="1:2" x14ac:dyDescent="0.25">
@@ -4057,7 +4079,7 @@
         <v>456</v>
       </c>
       <c r="B458">
-        <v>80218</v>
+        <v>58433</v>
       </c>
     </row>
     <row r="459" spans="1:2" x14ac:dyDescent="0.25">
@@ -4065,7 +4087,7 @@
         <v>457</v>
       </c>
       <c r="B459">
-        <v>80063</v>
+        <v>58603</v>
       </c>
     </row>
     <row r="460" spans="1:2" x14ac:dyDescent="0.25">
@@ -4073,7 +4095,7 @@
         <v>458</v>
       </c>
       <c r="B460">
-        <v>79156</v>
+        <v>59314</v>
       </c>
     </row>
     <row r="461" spans="1:2" x14ac:dyDescent="0.25">
@@ -4081,7 +4103,7 @@
         <v>459</v>
       </c>
       <c r="B461">
-        <v>79199</v>
+        <v>58359</v>
       </c>
     </row>
     <row r="462" spans="1:2" x14ac:dyDescent="0.25">
@@ -4089,7 +4111,7 @@
         <v>460</v>
       </c>
       <c r="B462">
-        <v>79220</v>
+        <v>58469</v>
       </c>
     </row>
     <row r="463" spans="1:2" x14ac:dyDescent="0.25">
@@ -4097,7 +4119,7 @@
         <v>461</v>
       </c>
       <c r="B463">
-        <v>79558</v>
+        <v>58356</v>
       </c>
     </row>
     <row r="464" spans="1:2" x14ac:dyDescent="0.25">
@@ -4105,7 +4127,7 @@
         <v>462</v>
       </c>
       <c r="B464">
-        <v>79180</v>
+        <v>59266</v>
       </c>
     </row>
     <row r="465" spans="1:2" x14ac:dyDescent="0.25">
@@ -4113,7 +4135,7 @@
         <v>463</v>
       </c>
       <c r="B465">
-        <v>79519</v>
+        <v>59567</v>
       </c>
     </row>
     <row r="466" spans="1:2" x14ac:dyDescent="0.25">
@@ -4121,7 +4143,7 @@
         <v>464</v>
       </c>
       <c r="B466">
-        <v>80218</v>
+        <v>58288</v>
       </c>
     </row>
     <row r="467" spans="1:2" x14ac:dyDescent="0.25">
@@ -4129,7 +4151,7 @@
         <v>465</v>
       </c>
       <c r="B467">
-        <v>79037</v>
+        <v>58449</v>
       </c>
     </row>
     <row r="468" spans="1:2" x14ac:dyDescent="0.25">
@@ -4137,7 +4159,7 @@
         <v>466</v>
       </c>
       <c r="B468">
-        <v>79151</v>
+        <v>58604</v>
       </c>
     </row>
     <row r="469" spans="1:2" x14ac:dyDescent="0.25">
@@ -4145,7 +4167,7 @@
         <v>467</v>
       </c>
       <c r="B469">
-        <v>79039</v>
+        <v>58587</v>
       </c>
     </row>
     <row r="470" spans="1:2" x14ac:dyDescent="0.25">
@@ -4153,7 +4175,7 @@
         <v>468</v>
       </c>
       <c r="B470">
-        <v>79555</v>
+        <v>59564</v>
       </c>
     </row>
     <row r="471" spans="1:2" x14ac:dyDescent="0.25">
@@ -4161,7 +4183,7 @@
         <v>469</v>
       </c>
       <c r="B471">
-        <v>79867</v>
+        <v>58358</v>
       </c>
     </row>
     <row r="472" spans="1:2" x14ac:dyDescent="0.25">
@@ -4169,7 +4191,7 @@
         <v>470</v>
       </c>
       <c r="B472">
-        <v>79463</v>
+        <v>58321</v>
       </c>
     </row>
     <row r="473" spans="1:2" x14ac:dyDescent="0.25">
@@ -4177,7 +4199,7 @@
         <v>471</v>
       </c>
       <c r="B473">
-        <v>80143</v>
+        <v>58365</v>
       </c>
     </row>
     <row r="474" spans="1:2" x14ac:dyDescent="0.25">
@@ -4185,7 +4207,7 @@
         <v>472</v>
       </c>
       <c r="B474">
-        <v>79232</v>
+        <v>59222</v>
       </c>
     </row>
     <row r="475" spans="1:2" x14ac:dyDescent="0.25">
@@ -4193,7 +4215,7 @@
         <v>473</v>
       </c>
       <c r="B475">
-        <v>79147</v>
+        <v>58540</v>
       </c>
     </row>
     <row r="476" spans="1:2" x14ac:dyDescent="0.25">
@@ -4201,7 +4223,7 @@
         <v>474</v>
       </c>
       <c r="B476">
-        <v>79516</v>
+        <v>59223</v>
       </c>
     </row>
     <row r="477" spans="1:2" x14ac:dyDescent="0.25">
@@ -4209,7 +4231,7 @@
         <v>475</v>
       </c>
       <c r="B477">
-        <v>79494</v>
+        <v>59219</v>
       </c>
     </row>
     <row r="478" spans="1:2" x14ac:dyDescent="0.25">
@@ -4217,7 +4239,7 @@
         <v>476</v>
       </c>
       <c r="B478">
-        <v>79558</v>
+        <v>59564</v>
       </c>
     </row>
     <row r="479" spans="1:2" x14ac:dyDescent="0.25">
@@ -4225,7 +4247,7 @@
         <v>477</v>
       </c>
       <c r="B479">
-        <v>80269</v>
+        <v>58370</v>
       </c>
     </row>
     <row r="480" spans="1:2" x14ac:dyDescent="0.25">
@@ -4233,7 +4255,7 @@
         <v>478</v>
       </c>
       <c r="B480">
-        <v>79439</v>
+        <v>59319</v>
       </c>
     </row>
     <row r="481" spans="1:2" x14ac:dyDescent="0.25">
@@ -4241,7 +4263,7 @@
         <v>479</v>
       </c>
       <c r="B481">
-        <v>79471</v>
+        <v>58376</v>
       </c>
     </row>
     <row r="482" spans="1:2" x14ac:dyDescent="0.25">
@@ -4249,7 +4271,7 @@
         <v>480</v>
       </c>
       <c r="B482">
-        <v>79183</v>
+        <v>58464</v>
       </c>
     </row>
     <row r="483" spans="1:2" x14ac:dyDescent="0.25">
@@ -4257,7 +4279,7 @@
         <v>481</v>
       </c>
       <c r="B483">
-        <v>79180</v>
+        <v>58326</v>
       </c>
     </row>
     <row r="484" spans="1:2" x14ac:dyDescent="0.25">
@@ -4265,7 +4287,7 @@
         <v>482</v>
       </c>
       <c r="B484">
-        <v>79272</v>
+        <v>58578</v>
       </c>
     </row>
     <row r="485" spans="1:2" x14ac:dyDescent="0.25">
@@ -4273,7 +4295,7 @@
         <v>483</v>
       </c>
       <c r="B485">
-        <v>79276</v>
+        <v>58387</v>
       </c>
     </row>
     <row r="486" spans="1:2" x14ac:dyDescent="0.25">
@@ -4281,7 +4303,7 @@
         <v>484</v>
       </c>
       <c r="B486">
-        <v>79475</v>
+        <v>59226</v>
       </c>
     </row>
     <row r="487" spans="1:2" x14ac:dyDescent="0.25">
@@ -4289,7 +4311,7 @@
         <v>485</v>
       </c>
       <c r="B487">
-        <v>79028</v>
+        <v>59291</v>
       </c>
     </row>
     <row r="488" spans="1:2" x14ac:dyDescent="0.25">
@@ -4297,7 +4319,7 @@
         <v>486</v>
       </c>
       <c r="B488">
-        <v>79467</v>
+        <v>58437</v>
       </c>
     </row>
     <row r="489" spans="1:2" x14ac:dyDescent="0.25">
@@ -4305,7 +4327,7 @@
         <v>487</v>
       </c>
       <c r="B489">
-        <v>79527</v>
+        <v>59237</v>
       </c>
     </row>
     <row r="490" spans="1:2" x14ac:dyDescent="0.25">
@@ -4313,7 +4335,7 @@
         <v>488</v>
       </c>
       <c r="B490">
-        <v>79467</v>
+        <v>58354</v>
       </c>
     </row>
     <row r="491" spans="1:2" x14ac:dyDescent="0.25">
@@ -4321,7 +4343,7 @@
         <v>489</v>
       </c>
       <c r="B491">
-        <v>79523</v>
+        <v>59215</v>
       </c>
     </row>
     <row r="492" spans="1:2" x14ac:dyDescent="0.25">
@@ -4329,7 +4351,7 @@
         <v>490</v>
       </c>
       <c r="B492">
-        <v>79453</v>
+        <v>58362</v>
       </c>
     </row>
     <row r="493" spans="1:2" x14ac:dyDescent="0.25">
@@ -4337,7 +4359,7 @@
         <v>491</v>
       </c>
       <c r="B493">
-        <v>79468</v>
+        <v>58421</v>
       </c>
     </row>
     <row r="494" spans="1:2" x14ac:dyDescent="0.25">
@@ -4345,7 +4367,7 @@
         <v>492</v>
       </c>
       <c r="B494">
-        <v>80118</v>
+        <v>59180</v>
       </c>
     </row>
     <row r="495" spans="1:2" x14ac:dyDescent="0.25">
@@ -4353,7 +4375,7 @@
         <v>493</v>
       </c>
       <c r="B495">
-        <v>79394</v>
+        <v>59307</v>
       </c>
     </row>
     <row r="496" spans="1:2" x14ac:dyDescent="0.25">
@@ -4361,7 +4383,7 @@
         <v>494</v>
       </c>
       <c r="B496">
-        <v>80240</v>
+        <v>58568</v>
       </c>
     </row>
     <row r="497" spans="1:2" x14ac:dyDescent="0.25">
@@ -4369,7 +4391,7 @@
         <v>495</v>
       </c>
       <c r="B497">
-        <v>80216</v>
+        <v>59203</v>
       </c>
     </row>
     <row r="498" spans="1:2" x14ac:dyDescent="0.25">
@@ -4377,7 +4399,7 @@
         <v>496</v>
       </c>
       <c r="B498">
-        <v>79205</v>
+        <v>58432</v>
       </c>
     </row>
     <row r="499" spans="1:2" x14ac:dyDescent="0.25">
@@ -4385,7 +4407,7 @@
         <v>497</v>
       </c>
       <c r="B499">
-        <v>79190</v>
+        <v>58572</v>
       </c>
     </row>
     <row r="500" spans="1:2" x14ac:dyDescent="0.25">
@@ -4393,7 +4415,7 @@
         <v>498</v>
       </c>
       <c r="B500">
-        <v>80141</v>
+        <v>58356</v>
       </c>
     </row>
     <row r="501" spans="1:2" x14ac:dyDescent="0.25">
@@ -4401,7 +4423,52 @@
         <v>499</v>
       </c>
       <c r="B501">
-        <v>80141</v>
+        <v>58276</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E2"/>
+  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>500</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2">
+        <v>60.592</v>
       </c>
     </row>
   </sheetData>
